--- a/assets/downloads/Config Maker 2025.05.07 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.05.07 EN by KJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A229C9D-81E4-4238-B6C0-561D2ABBFBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF285D76-73EC-4FC8-B836-2E35249C9AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="780" windowWidth="12800" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
+    <workbookView xWindow="12750" yWindow="780" windowWidth="12800" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG 1" sheetId="1" r:id="rId1"/>
@@ -1642,6 +1642,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60819692101813316"/>
+          <c:y val="0.35380798472863828"/>
+          <c:w val="8.2377583470154753E-2"/>
+          <c:h val="0.29854657851241206"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2277,6 +2287,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.61011345116642157"/>
+          <c:y val="0.25724087365508391"/>
+          <c:w val="9.5855356581155557E-2"/>
+          <c:h val="0.49757774637776386"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -8832,7 +8852,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="50">
-        <f>-1*(B37-B38)</f>
+        <f>IF(B38&gt;B37,-1*(B37-B38),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/assets/downloads/Config Maker 2025.05.07 EN by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.05.07 EN by KJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF285D76-73EC-4FC8-B836-2E35249C9AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AC5E53-8BF6-4F7F-AB23-D430338F4F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="780" windowWidth="12800" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
+    <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG 1" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,55 +953,19 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,6 +975,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,45 +1029,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1646,10 +1646,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.60819692101813316"/>
-          <c:y val="0.35380798472863828"/>
-          <c:w val="8.2377583470154753E-2"/>
-          <c:h val="0.29854657851241206"/>
+          <c:x val="0.54969856863283439"/>
+          <c:y val="0.21817295764458469"/>
+          <c:w val="0.39180307898186684"/>
+          <c:h val="0.55212510740868603"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2291,10 +2291,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.61011345116642157"/>
-          <c:y val="0.25724087365508391"/>
-          <c:w val="9.5855356581155557E-2"/>
-          <c:h val="0.49757774637776386"/>
+          <c:x val="0.55777282008483842"/>
+          <c:y val="0.12750299154010569"/>
+          <c:w val="0.38372882752986287"/>
+          <c:h val="0.73641339299851916"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2776,10 +2776,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65181349853435067"/>
-          <c:y val="0.33113921482762187"/>
-          <c:w val="0.14073753227340668"/>
-          <c:h val="0.35377497764699312"/>
+          <c:x val="0.60558730320501619"/>
+          <c:y val="0.31055198553289776"/>
+          <c:w val="0.23935341564265328"/>
+          <c:h val="0.37142117418532816"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -8184,30 +8184,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64">
         <v>45843</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -8447,16 +8447,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -8612,16 +8612,16 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -8753,18 +8753,18 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="F33" s="63" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="F33" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -8774,17 +8774,17 @@
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="54">
         <f>B37-B38</f>
         <v>0</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="54"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="74"/>
-      <c r="I34" s="75"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -8794,14 +8794,14 @@
         <f>SUM(H17:H22)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -8811,14 +8811,14 @@
         <f>SUM(H26:H28)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -8828,14 +8828,14 @@
         <f>B34+B35+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -8844,8 +8844,8 @@
       <c r="B38" s="43">
         <v>0</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="49" t="s">
@@ -8870,32 +8870,32 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55" t="s">
+      <c r="D45" s="69"/>
+      <c r="E45" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
       <c r="H45" s="44" t="s">
         <v>104</v>
       </c>
@@ -8911,20 +8911,20 @@
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="C46" s="59">
-        <v>0</v>
-      </c>
-      <c r="D46" s="60">
+      <c r="C46" s="74">
+        <v>0</v>
+      </c>
+      <c r="D46" s="75">
         <v>1</v>
       </c>
-      <c r="E46" s="61">
-        <v>0</v>
-      </c>
-      <c r="F46" s="61">
+      <c r="E46" s="76">
+        <v>0</v>
+      </c>
+      <c r="F46" s="76">
         <f t="shared" ref="F46:F48" si="4">F34</f>
         <v>0</v>
       </c>
-      <c r="G46" s="57"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="48" t="e">
         <f>100-(I46*100/B46)</f>
         <v>#DIV/0!</v>
@@ -8942,20 +8942,20 @@
         <f>B35</f>
         <v>0</v>
       </c>
-      <c r="C47" s="59">
-        <v>0</v>
-      </c>
-      <c r="D47" s="60">
+      <c r="C47" s="74">
+        <v>0</v>
+      </c>
+      <c r="D47" s="75">
         <v>1</v>
       </c>
-      <c r="E47" s="61">
-        <v>0</v>
-      </c>
-      <c r="F47" s="61">
+      <c r="E47" s="76">
+        <v>0</v>
+      </c>
+      <c r="F47" s="76">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G47" s="57"/>
+      <c r="G47" s="72"/>
       <c r="H47" s="48" t="e">
         <f t="shared" ref="H47:H48" si="5">100-(I47*100/B47)</f>
         <v>#DIV/0!</v>
@@ -8973,20 +8973,20 @@
         <f>B36</f>
         <v>0</v>
       </c>
-      <c r="C48" s="59">
-        <v>0</v>
-      </c>
-      <c r="D48" s="60">
+      <c r="C48" s="74">
+        <v>0</v>
+      </c>
+      <c r="D48" s="75">
         <v>1</v>
       </c>
-      <c r="E48" s="61">
-        <v>0</v>
-      </c>
-      <c r="F48" s="61">
+      <c r="E48" s="76">
+        <v>0</v>
+      </c>
+      <c r="F48" s="76">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G48" s="58"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -8997,42 +8997,30 @@
       </c>
     </row>
     <row r="49" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52">
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="67">
         <f>I46+I47+I48</f>
         <v>0</v>
       </c>
-      <c r="I49" s="52"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A24:H24"/>
     <mergeCell ref="C49:G50"/>
     <mergeCell ref="H49:I50"/>
     <mergeCell ref="A44:I44"/>
@@ -9045,6 +9033,18 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="17" priority="23" operator="lessThan">
@@ -9173,30 +9173,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70">
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64">
         <v>45491</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -9223,15 +9223,15 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
@@ -9253,13 +9253,13 @@
         <f>(E4*F4)+G4</f>
         <v>147.92999999999998</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -9281,15 +9281,15 @@
         <f t="shared" ref="H5:H13" si="0">(E5*F5)+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="91" t="s">
+      <c r="K5" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -9311,15 +9311,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
@@ -9341,15 +9341,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
@@ -9371,15 +9371,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="77" t="s">
+      <c r="K8" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -9401,15 +9401,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -9431,15 +9431,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
@@ -9461,15 +9461,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
@@ -9514,16 +9514,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -9573,14 +9573,14 @@
         <v>0</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="96" t="s">
+      <c r="L17" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9602,14 +9602,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="96" t="s">
+      <c r="L18" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
@@ -9695,26 +9695,26 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="K24" s="82" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="K24" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -9744,15 +9744,15 @@
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="85"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
@@ -9778,15 +9778,15 @@
         <f>H26-H4</f>
         <v>-147.92999999999998</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
@@ -9812,15 +9812,15 @@
         <f t="shared" ref="I27:I30" si="2">H27-0</f>
         <v>0</v>
       </c>
-      <c r="K27" s="79" t="s">
+      <c r="K27" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="81"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="84"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
@@ -9846,15 +9846,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="79" t="s">
+      <c r="K28" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="84"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
@@ -9880,15 +9880,15 @@
         <f>H29-0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="81"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="84"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
@@ -9914,55 +9914,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="81"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="100" t="s">
+      <c r="K31" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="87"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="97" t="s">
+      <c r="K32" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="99"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="81"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="F33" s="63" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="F33" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="65"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -9971,14 +9971,14 @@
       <c r="B34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="74"/>
-      <c r="I34" s="75"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -9987,14 +9987,14 @@
       <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -10003,14 +10003,14 @@
       <c r="B36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -10019,14 +10019,14 @@
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -10035,8 +10035,8 @@
       <c r="B38" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10054,29 +10054,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K27:Q27"/>
@@ -10086,6 +10063,29 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{DEFCB1FC-5A4C-4669-B8BE-6F0E263F6A35}"/>
